--- a/xlsx/多孔动物门_intext.xlsx
+++ b/xlsx/多孔动物门_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="420">
   <si>
     <t>多孔动物门</t>
   </si>
@@ -29,7 +29,7 @@
     <t>海绵 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_多孔动物门</t>
+    <t>政策_政策_维基百科_多孔动物门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E8%BF%AA%E5%8D%A1%E6%8B%89%E7%BA%AA</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%97%E7%95%99%E7%B4%80</t>
   </si>
   <si>
-    <t>志留紀</t>
+    <t>志留纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A5%E7%9B%86%E7%BA%AA</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B1_(%E7%94%9F%E7%89%A9)</t>
   </si>
   <si>
-    <t>綱 (生物)</t>
+    <t>纲 (生物)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%99%E8%B4%A8%E6%B5%B7%E7%BB%B5%E7%BA%B2</t>
@@ -155,19 +155,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%A4%E5%AD%94%E8%9F%B2%E7%B6%B1</t>
   </si>
   <si>
-    <t>層孔蟲綱</t>
+    <t>层孔虫纲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%90%8D</t>
   </si>
   <si>
-    <t>學名</t>
+    <t>学名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B4%B0%E8%83%9E%E7%94%9F%E7%89%A9</t>
   </si>
   <si>
-    <t>多細胞生物</t>
+    <t>多细胞生物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E7%B3%BB%E7%BB%9F</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E6%B0%A3</t>
   </si>
   <si>
-    <t>氧氣</t>
+    <t>氧气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9</t>
@@ -209,13 +209,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>動物</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E7%B5%84</t>
   </si>
   <si>
-    <t>基因組</t>
+    <t>基因组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%BB%9F%E5%8F%91%E7%94%9F%E5%AD%A6</t>
@@ -311,19 +308,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%AA%A8%E9%AA%BC</t>
   </si>
   <si>
-    <t>內骨骼</t>
+    <t>内骨骼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%A0%E5%8E%9F%E8%9B%8B%E7%99%BD</t>
   </si>
   <si>
-    <t>膠原蛋白</t>
+    <t>胶原蛋白</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E9%85%B8%E9%88%A3</t>
   </si>
   <si>
-    <t>碳酸鈣</t>
+    <t>碳酸钙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%B0%A7%E5%8C%96%E7%A1%85</t>
@@ -335,13 +332,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%8C%E9%9B%84%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>雌雄同體</t>
+    <t>雌雄同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%A4%E5%AD%94%E8%9F%B2</t>
   </si>
   <si>
-    <t>層孔蟲</t>
+    <t>层孔虫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%81</t>
@@ -359,13 +356,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%94%E8%98%9A%E8%9F%B2</t>
   </si>
   <si>
-    <t>苔蘚蟲</t>
+    <t>苔藓虫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%BB%E9%A1%9E</t>
   </si>
   <si>
-    <t>藻類</t>
+    <t>藻类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E6%B5%B7%E7%BB%B5%E7%BA%B2</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E9%9E%AD%E6%AF%9B%E7%94%9F%E7%89%A9</t>
   </si>
   <si>
-    <t>後鞭毛生物</t>
+    <t>后鞭毛生物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%A8_(%E7%94%9F%E7%89%A9)</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%B4%E7%94%9F%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>側生動物</t>
+    <t>侧生动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%81%E7%9B%98%E5%8A%A8%E7%89%A9%E9%97%A8</t>
@@ -437,19 +434,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%B3%B3%E5%8B%95%E7%89%A9%E9%96%80</t>
   </si>
   <si>
-    <t>直泳動物門</t>
+    <t>直泳动物门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B1%E5%BD%A2%E5%8B%95%E7%89%A9%E9%96%80</t>
   </si>
   <si>
-    <t>菱形動物門</t>
+    <t>菱形动物门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E8%83%9A%E5%8B%95%E7%89%A9%E9%96%80</t>
   </si>
   <si>
-    <t>單胚動物門</t>
+    <t>单胚动物门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E5%90%8E%E7%94%9F%E5%8A%A8%E7%89%A9</t>
@@ -599,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E8%9F%B2%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>線蟲動物</t>
+    <t>线虫动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BF%E8%99%AB%E5%8A%A8%E7%89%A9%E9%97%A8</t>
@@ -713,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%A0%E8%BC%AA%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>冠輪動物</t>
+    <t>冠轮动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%85%E8%BD%AE%E5%8A%A8%E7%89%A9</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%B8%E6%89%8B%E5%86%A0%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>觸手冠動物</t>
+    <t>触手冠动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%94%E8%97%93%E5%8A%A8%E7%89%A9%E9%97%A8</t>
@@ -809,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%A0%AD%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>有頭動物</t>
+    <t>有头动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%8A%E6%A4%8E%E5%8A%A8%E7%89%A9%E4%BA%9A%E9%97%A8</t>
@@ -857,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E8%89%B2%E7%B4%A0%E9%AB%94%E7%94%9F%E7%89%A9</t>
   </si>
   <si>
-    <t>原始色素體生物</t>
+    <t>原始色素体生物</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Viridiplantae</t>
@@ -869,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%97%BB%E9%96%80</t>
   </si>
   <si>
-    <t>紅藻門</t>
+    <t>红藻门</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Glaucophyte</t>
@@ -893,13 +890,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E9%9E%AD%E8%97%BB%E9%96%80</t>
   </si>
   <si>
-    <t>定鞭藻門</t>
+    <t>定鞭藻门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E8%97%BB%E9%96%80</t>
   </si>
   <si>
-    <t>隱藻門</t>
+    <t>隐藻门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%98%B3%E8%99%AB%E9%97%A8</t>
@@ -971,25 +968,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B2%E8%B6%B3%E8%9F%B2%E9%A1%9E</t>
   </si>
   <si>
-    <t>絲足蟲類</t>
+    <t>丝足虫类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E5%AD%94%E8%9F%B2%E9%A1%9E</t>
   </si>
   <si>
-    <t>有孔蟲類</t>
+    <t>有孔虫类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E5%AD%94%E8%9F%B2%E9%96%80</t>
   </si>
   <si>
-    <t>有孔蟲門</t>
+    <t>有孔虫门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%B0%84%E8%9F%B2</t>
   </si>
   <si>
-    <t>放射蟲</t>
+    <t>放射虫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%99%AB%E7%95%8C</t>
@@ -1067,13 +1064,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E9%9E%AD%E6%AF%9B%E7%94%9F%E7%89%A9</t>
   </si>
   <si>
-    <t>單鞭毛生物</t>
+    <t>单鞭毛生物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E5%BD%A2%E8%9F%B2%E7%95%8C</t>
   </si>
   <si>
-    <t>變形蟲界</t>
+    <t>变形虫界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B6%E8%B6%B3%E4%BA%9A%E9%97%A8</t>
@@ -1085,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%90%E8%B6%B3%E4%BA%9E%E9%96%80</t>
   </si>
   <si>
-    <t>錐足亞門</t>
+    <t>锥足亚门</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Phalansterium</t>
@@ -1163,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E9%9E%AD%E6%AF%9B%E8%9F%B2</t>
   </si>
   <si>
-    <t>領鞭毛蟲</t>
+    <t>领鞭毛虫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%94%9F%E5%8A%A8%E7%89%A9%E9%97%A8</t>
@@ -1211,7 +1208,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%83%E5%9B%8A%E8%8F%8C%E9%96%80</t>
   </si>
   <si>
-    <t>球囊菌門</t>
+    <t>球囊菌门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A5%E5%90%88%E8%8F%8C%E9%97%A8</t>
@@ -1223,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%BD%E6%9E%9D%E9%9C%89%E9%96%80</t>
   </si>
   <si>
-    <t>芽枝霉門</t>
+    <t>芽枝霉门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%B6%E8%8F%8C%E9%97%A8</t>
@@ -1241,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%AD%A2%E5%AD%90%E8%9F%B2%E9%96%80</t>
   </si>
   <si>
-    <t>微孢子蟲門</t>
+    <t>微孢子虫门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%BD%A2%E8%99%AB%E7%9B%AE</t>
@@ -1265,7 +1262,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1277,7 +1274,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2547,7 +2544,7 @@
         <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G32" t="n">
         <v>5</v>
@@ -2573,10 +2570,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2602,10 +2599,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2631,10 +2628,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2660,10 +2657,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2689,10 +2686,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2718,10 +2715,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2747,10 +2744,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2776,10 +2773,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>4</v>
@@ -2805,10 +2802,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2834,10 +2831,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2863,10 +2860,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2892,10 +2889,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>17</v>
@@ -2921,10 +2918,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>14</v>
@@ -2950,10 +2947,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -2979,10 +2976,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3008,10 +3005,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -3037,10 +3034,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3066,10 +3063,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3095,10 +3092,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3124,10 +3121,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3182,10 +3179,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3211,10 +3208,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -3240,10 +3237,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3269,10 +3266,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -3298,10 +3295,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3327,10 +3324,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3356,10 +3353,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3385,10 +3382,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3414,10 +3411,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>4</v>
@@ -3443,10 +3440,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3501,10 +3498,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>88</v>
@@ -3530,10 +3527,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3559,10 +3556,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>19</v>
@@ -3588,10 +3585,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3617,10 +3614,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3646,10 +3643,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3675,10 +3672,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3704,10 +3701,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3733,10 +3730,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3762,10 +3759,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3791,10 +3788,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3820,10 +3817,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3849,10 +3846,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3878,10 +3875,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3907,10 +3904,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3936,10 +3933,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3965,10 +3962,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3994,10 +3991,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4023,10 +4020,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4052,10 +4049,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4081,10 +4078,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4110,10 +4107,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4139,10 +4136,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4168,10 +4165,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4197,10 +4194,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4226,10 +4223,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4255,10 +4252,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4284,10 +4281,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4313,10 +4310,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4342,10 +4339,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4371,10 +4368,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4400,10 +4397,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4429,10 +4426,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4458,10 +4455,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4487,10 +4484,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4516,10 +4513,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4545,10 +4542,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4574,10 +4571,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4603,10 +4600,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4632,10 +4629,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4661,10 +4658,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4690,10 +4687,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4719,10 +4716,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4748,10 +4745,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4777,10 +4774,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4806,10 +4803,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4835,10 +4832,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>212</v>
+      </c>
+      <c r="F111" t="s">
         <v>213</v>
-      </c>
-      <c r="F111" t="s">
-        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4864,10 +4861,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4893,10 +4890,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4922,10 +4919,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4951,10 +4948,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4980,10 +4977,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5009,10 +5006,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5038,10 +5035,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5067,10 +5064,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5096,10 +5093,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5125,10 +5122,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5154,10 +5151,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5183,10 +5180,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5212,10 +5209,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5241,10 +5238,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5270,10 +5267,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5299,10 +5296,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5328,10 +5325,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5357,10 +5354,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5386,10 +5383,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5415,10 +5412,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5444,10 +5441,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5473,10 +5470,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5502,10 +5499,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5531,10 +5528,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5560,10 +5557,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
         <v>265</v>
-      </c>
-      <c r="F136" t="s">
-        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5589,10 +5586,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>266</v>
+      </c>
+      <c r="F137" t="s">
         <v>267</v>
-      </c>
-      <c r="F137" t="s">
-        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5618,10 +5615,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" t="s">
         <v>269</v>
-      </c>
-      <c r="F138" t="s">
-        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5647,10 +5644,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
         <v>271</v>
-      </c>
-      <c r="F139" t="s">
-        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5676,10 +5673,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" t="s">
         <v>273</v>
-      </c>
-      <c r="F140" t="s">
-        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>5</v>
@@ -5705,10 +5702,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" t="s">
         <v>275</v>
-      </c>
-      <c r="F141" t="s">
-        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5734,10 +5731,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>276</v>
+      </c>
+      <c r="F142" t="s">
         <v>277</v>
-      </c>
-      <c r="F142" t="s">
-        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5763,10 +5760,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>278</v>
+      </c>
+      <c r="F143" t="s">
         <v>279</v>
-      </c>
-      <c r="F143" t="s">
-        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5821,10 +5818,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>280</v>
+      </c>
+      <c r="F145" t="s">
         <v>281</v>
-      </c>
-      <c r="F145" t="s">
-        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5879,10 +5876,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>282</v>
+      </c>
+      <c r="F147" t="s">
         <v>283</v>
-      </c>
-      <c r="F147" t="s">
-        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5908,10 +5905,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>284</v>
+      </c>
+      <c r="F148" t="s">
         <v>285</v>
-      </c>
-      <c r="F148" t="s">
-        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5937,10 +5934,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>286</v>
+      </c>
+      <c r="F149" t="s">
         <v>287</v>
-      </c>
-      <c r="F149" t="s">
-        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5966,10 +5963,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>288</v>
+      </c>
+      <c r="F150" t="s">
         <v>289</v>
-      </c>
-      <c r="F150" t="s">
-        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5995,10 +5992,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>290</v>
+      </c>
+      <c r="F151" t="s">
         <v>291</v>
-      </c>
-      <c r="F151" t="s">
-        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6024,10 +6021,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>292</v>
+      </c>
+      <c r="F152" t="s">
         <v>293</v>
-      </c>
-      <c r="F152" t="s">
-        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6053,10 +6050,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>294</v>
+      </c>
+      <c r="F153" t="s">
         <v>295</v>
-      </c>
-      <c r="F153" t="s">
-        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6082,10 +6079,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>286</v>
+      </c>
+      <c r="F154" t="s">
         <v>287</v>
-      </c>
-      <c r="F154" t="s">
-        <v>288</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6111,10 +6108,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>296</v>
+      </c>
+      <c r="F155" t="s">
         <v>297</v>
-      </c>
-      <c r="F155" t="s">
-        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -6140,10 +6137,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>298</v>
+      </c>
+      <c r="F156" t="s">
         <v>299</v>
-      </c>
-      <c r="F156" t="s">
-        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6169,10 +6166,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>300</v>
+      </c>
+      <c r="F157" t="s">
         <v>301</v>
-      </c>
-      <c r="F157" t="s">
-        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6198,10 +6195,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>302</v>
+      </c>
+      <c r="F158" t="s">
         <v>303</v>
-      </c>
-      <c r="F158" t="s">
-        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6227,10 +6224,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>304</v>
+      </c>
+      <c r="F159" t="s">
         <v>305</v>
-      </c>
-      <c r="F159" t="s">
-        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6256,10 +6253,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>306</v>
+      </c>
+      <c r="F160" t="s">
         <v>307</v>
-      </c>
-      <c r="F160" t="s">
-        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6285,10 +6282,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>308</v>
+      </c>
+      <c r="F161" t="s">
         <v>309</v>
-      </c>
-      <c r="F161" t="s">
-        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6314,10 +6311,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>310</v>
+      </c>
+      <c r="F162" t="s">
         <v>311</v>
-      </c>
-      <c r="F162" t="s">
-        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6343,10 +6340,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>312</v>
+      </c>
+      <c r="F163" t="s">
         <v>313</v>
-      </c>
-      <c r="F163" t="s">
-        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6372,10 +6369,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>314</v>
+      </c>
+      <c r="F164" t="s">
         <v>315</v>
-      </c>
-      <c r="F164" t="s">
-        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6401,10 +6398,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>316</v>
+      </c>
+      <c r="F165" t="s">
         <v>317</v>
-      </c>
-      <c r="F165" t="s">
-        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6430,10 +6427,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>318</v>
+      </c>
+      <c r="F166" t="s">
         <v>319</v>
-      </c>
-      <c r="F166" t="s">
-        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6459,10 +6456,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>320</v>
+      </c>
+      <c r="F167" t="s">
         <v>321</v>
-      </c>
-      <c r="F167" t="s">
-        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6488,10 +6485,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>322</v>
+      </c>
+      <c r="F168" t="s">
         <v>323</v>
-      </c>
-      <c r="F168" t="s">
-        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6517,10 +6514,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>324</v>
+      </c>
+      <c r="F169" t="s">
         <v>325</v>
-      </c>
-      <c r="F169" t="s">
-        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6546,10 +6543,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>326</v>
+      </c>
+      <c r="F170" t="s">
         <v>327</v>
-      </c>
-      <c r="F170" t="s">
-        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6575,10 +6572,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>328</v>
+      </c>
+      <c r="F171" t="s">
         <v>329</v>
-      </c>
-      <c r="F171" t="s">
-        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6604,10 +6601,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>330</v>
+      </c>
+      <c r="F172" t="s">
         <v>331</v>
-      </c>
-      <c r="F172" t="s">
-        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6633,10 +6630,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>332</v>
+      </c>
+      <c r="F173" t="s">
         <v>333</v>
-      </c>
-      <c r="F173" t="s">
-        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6662,10 +6659,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>334</v>
+      </c>
+      <c r="F174" t="s">
         <v>335</v>
-      </c>
-      <c r="F174" t="s">
-        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6691,10 +6688,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>336</v>
+      </c>
+      <c r="F175" t="s">
         <v>337</v>
-      </c>
-      <c r="F175" t="s">
-        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6720,10 +6717,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>338</v>
+      </c>
+      <c r="F176" t="s">
         <v>339</v>
-      </c>
-      <c r="F176" t="s">
-        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6749,10 +6746,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>340</v>
+      </c>
+      <c r="F177" t="s">
         <v>341</v>
-      </c>
-      <c r="F177" t="s">
-        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6778,10 +6775,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>342</v>
+      </c>
+      <c r="F178" t="s">
         <v>343</v>
-      </c>
-      <c r="F178" t="s">
-        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6807,10 +6804,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>344</v>
+      </c>
+      <c r="F179" t="s">
         <v>345</v>
-      </c>
-      <c r="F179" t="s">
-        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6836,10 +6833,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>346</v>
+      </c>
+      <c r="F180" t="s">
         <v>347</v>
-      </c>
-      <c r="F180" t="s">
-        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6865,10 +6862,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>348</v>
+      </c>
+      <c r="F181" t="s">
         <v>349</v>
-      </c>
-      <c r="F181" t="s">
-        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6894,10 +6891,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>350</v>
+      </c>
+      <c r="F182" t="s">
         <v>351</v>
-      </c>
-      <c r="F182" t="s">
-        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6923,10 +6920,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>352</v>
+      </c>
+      <c r="F183" t="s">
         <v>353</v>
-      </c>
-      <c r="F183" t="s">
-        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6952,10 +6949,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>354</v>
+      </c>
+      <c r="F184" t="s">
         <v>355</v>
-      </c>
-      <c r="F184" t="s">
-        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6981,10 +6978,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>356</v>
+      </c>
+      <c r="F185" t="s">
         <v>357</v>
-      </c>
-      <c r="F185" t="s">
-        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7010,10 +7007,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>358</v>
+      </c>
+      <c r="F186" t="s">
         <v>359</v>
-      </c>
-      <c r="F186" t="s">
-        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7039,10 +7036,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>360</v>
+      </c>
+      <c r="F187" t="s">
         <v>361</v>
-      </c>
-      <c r="F187" t="s">
-        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7068,10 +7065,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>362</v>
+      </c>
+      <c r="F188" t="s">
         <v>363</v>
-      </c>
-      <c r="F188" t="s">
-        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7097,10 +7094,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>364</v>
+      </c>
+      <c r="F189" t="s">
         <v>365</v>
-      </c>
-      <c r="F189" t="s">
-        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7126,10 +7123,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>366</v>
+      </c>
+      <c r="F190" t="s">
         <v>367</v>
-      </c>
-      <c r="F190" t="s">
-        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7155,10 +7152,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>368</v>
+      </c>
+      <c r="F191" t="s">
         <v>369</v>
-      </c>
-      <c r="F191" t="s">
-        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7184,10 +7181,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>370</v>
+      </c>
+      <c r="F192" t="s">
         <v>371</v>
-      </c>
-      <c r="F192" t="s">
-        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7213,10 +7210,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>372</v>
+      </c>
+      <c r="F193" t="s">
         <v>373</v>
-      </c>
-      <c r="F193" t="s">
-        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7242,10 +7239,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>374</v>
+      </c>
+      <c r="F194" t="s">
         <v>375</v>
-      </c>
-      <c r="F194" t="s">
-        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7271,10 +7268,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>376</v>
+      </c>
+      <c r="F195" t="s">
         <v>377</v>
-      </c>
-      <c r="F195" t="s">
-        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7300,10 +7297,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>378</v>
+      </c>
+      <c r="F196" t="s">
         <v>379</v>
-      </c>
-      <c r="F196" t="s">
-        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7329,10 +7326,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>380</v>
+      </c>
+      <c r="F197" t="s">
         <v>381</v>
-      </c>
-      <c r="F197" t="s">
-        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7358,10 +7355,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>380</v>
+      </c>
+      <c r="F198" t="s">
         <v>381</v>
-      </c>
-      <c r="F198" t="s">
-        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7393,7 +7390,7 @@
         <v>34</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -7416,10 +7413,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>148</v>
+      </c>
+      <c r="F200" t="s">
         <v>149</v>
-      </c>
-      <c r="F200" t="s">
-        <v>150</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7445,10 +7442,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>382</v>
+      </c>
+      <c r="F201" t="s">
         <v>383</v>
-      </c>
-      <c r="F201" t="s">
-        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7474,10 +7471,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>140</v>
+      </c>
+      <c r="F202" t="s">
         <v>141</v>
-      </c>
-      <c r="F202" t="s">
-        <v>142</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7503,10 +7500,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>138</v>
+      </c>
+      <c r="F203" t="s">
         <v>139</v>
-      </c>
-      <c r="F203" t="s">
-        <v>140</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7532,10 +7529,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>384</v>
+      </c>
+      <c r="F204" t="s">
         <v>385</v>
-      </c>
-      <c r="F204" t="s">
-        <v>386</v>
       </c>
       <c r="G204" t="n">
         <v>14</v>
@@ -7561,10 +7558,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>386</v>
+      </c>
+      <c r="F205" t="s">
         <v>387</v>
-      </c>
-      <c r="F205" t="s">
-        <v>388</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7590,10 +7587,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>388</v>
+      </c>
+      <c r="F206" t="s">
         <v>389</v>
-      </c>
-      <c r="F206" t="s">
-        <v>390</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7619,10 +7616,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>390</v>
+      </c>
+      <c r="F207" t="s">
         <v>391</v>
-      </c>
-      <c r="F207" t="s">
-        <v>392</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7648,10 +7645,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>392</v>
+      </c>
+      <c r="F208" t="s">
         <v>393</v>
-      </c>
-      <c r="F208" t="s">
-        <v>394</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7677,10 +7674,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>394</v>
+      </c>
+      <c r="F209" t="s">
         <v>395</v>
-      </c>
-      <c r="F209" t="s">
-        <v>396</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7706,10 +7703,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>396</v>
+      </c>
+      <c r="F210" t="s">
         <v>397</v>
-      </c>
-      <c r="F210" t="s">
-        <v>398</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7735,10 +7732,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>398</v>
+      </c>
+      <c r="F211" t="s">
         <v>399</v>
-      </c>
-      <c r="F211" t="s">
-        <v>400</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7764,10 +7761,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>400</v>
+      </c>
+      <c r="F212" t="s">
         <v>401</v>
-      </c>
-      <c r="F212" t="s">
-        <v>402</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7793,10 +7790,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>402</v>
+      </c>
+      <c r="F213" t="s">
         <v>403</v>
-      </c>
-      <c r="F213" t="s">
-        <v>404</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7822,10 +7819,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>404</v>
+      </c>
+      <c r="F214" t="s">
         <v>405</v>
-      </c>
-      <c r="F214" t="s">
-        <v>406</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7851,10 +7848,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>406</v>
+      </c>
+      <c r="F215" t="s">
         <v>407</v>
-      </c>
-      <c r="F215" t="s">
-        <v>408</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7880,10 +7877,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>408</v>
+      </c>
+      <c r="F216" t="s">
         <v>409</v>
-      </c>
-      <c r="F216" t="s">
-        <v>410</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7909,10 +7906,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>410</v>
+      </c>
+      <c r="F217" t="s">
         <v>411</v>
-      </c>
-      <c r="F217" t="s">
-        <v>412</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -7938,10 +7935,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>412</v>
+      </c>
+      <c r="F218" t="s">
         <v>413</v>
-      </c>
-      <c r="F218" t="s">
-        <v>414</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -7967,10 +7964,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>414</v>
+      </c>
+      <c r="F219" t="s">
         <v>415</v>
-      </c>
-      <c r="F219" t="s">
-        <v>416</v>
       </c>
       <c r="G219" t="n">
         <v>3</v>
@@ -7996,10 +7993,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>416</v>
+      </c>
+      <c r="F220" t="s">
         <v>417</v>
-      </c>
-      <c r="F220" t="s">
-        <v>418</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8025,10 +8022,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>418</v>
+      </c>
+      <c r="F221" t="s">
         <v>419</v>
-      </c>
-      <c r="F221" t="s">
-        <v>420</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
